--- a/Dashboard Project.xlsx
+++ b/Dashboard Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592E2E89-C503-4D45-AF6E-220F29C310E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738D51F1-ECEE-4951-9A0C-FB22F9FD41E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8264" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8257" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -186,9 +186,6 @@
   </si>
   <si>
     <t>MiddleAge</t>
-  </si>
-  <si>
-    <t>Retire</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1004,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33846.153846153844</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1066,17 +1063,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>39090.909090909088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34615.384615384617</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C014-48B4-B2E2-79719BDADBA6}"/>
+              <c16:uniqueId val="{00000001-B269-4E6C-9C07-C5D4E2263ADE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1714,41 +1708,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$16:$A$20</c:f>
+              <c:f>Pivot!$A$16:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0-1 Miles</c:v>
+                  <c:v>2-5 Miles</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10+ Miles</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1-2 Miles</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2-5 Miles</c:v>
+                  <c:v>5-10 Miles</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$B$16:$B$20</c:f>
+              <c:f>Pivot!$B$16:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1800,38 +1782,26 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$16:$A$20</c:f>
+              <c:f>Pivot!$A$16:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0-1 Miles</c:v>
+                  <c:v>2-5 Miles</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10+ Miles</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1-2 Miles</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2-5 Miles</c:v>
+                  <c:v>5-10 Miles</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$C$16:$C$20</c:f>
+              <c:f>Pivot!$C$16:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>42</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1839,7 +1809,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-939F-4556-8684-EF377592B621}"/>
+              <c16:uniqueId val="{00000001-AFB7-4465-BAFE-3A77A510A7AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2307,29 +2277,23 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$28:$A$30</c:f>
+              <c:f>Pivot!$A$28:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>MiddleAge</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Retire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$B$28:$B$30</c:f>
+              <c:f>Pivot!$B$28:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,29 +2333,23 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$28:$A$30</c:f>
+              <c:f>Pivot!$A$28:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>MiddleAge</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Retire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$C$28:$C$30</c:f>
+              <c:f>Pivot!$C$28:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,7 +2357,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D1F5-45E6-AD84-4DD91AFEFDF2}"/>
+              <c16:uniqueId val="{00000001-DFD6-430E-8A2D-9CFE0A3CF218}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2812,6 +2770,34 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2845,6 +2831,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DCA9-4C22-8A4E-9B85952C22F6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2860,6 +2851,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DCA9-4C22-8A4E-9B85952C22F6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2875,6 +2871,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-DCA9-4C22-8A4E-9B85952C22F6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2890,6 +2891,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-DCA9-4C22-8A4E-9B85952C22F6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2905,47 +2911,31 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-DCA9-4C22-8A4E-9B85952C22F6}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$38:$A$43</c:f>
+              <c:f>Pivot!$A$38:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clerical</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Management</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Manual</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Professional</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Skilled Manual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$B$38:$B$43</c:f>
+              <c:f>Pivot!$B$38:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2985,113 +2975,32 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$38:$A$43</c:f>
+              <c:f>Pivot!$A$38:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clerical</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Management</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Manual</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Professional</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Skilled Manual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$C$38:$C$43</c:f>
+              <c:f>Pivot!$C$38:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8CE9-46E5-B71A-DB14C0D5CB08}"/>
+              <c16:uniqueId val="{00000015-DCA9-4C22-8A4E-9B85952C22F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3686,10 +3595,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43000</c:v>
+                  <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33846.153846153844</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3745,17 +3654,14 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>39090.909090909088</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34615.384615384617</c:v>
+                  <c:v>120000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8ECB-4EE5-A567-0505341EB797}"/>
+              <c16:uniqueId val="{00000002-9AD0-4FCD-94BA-5B60A580F79F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4599,29 +4505,23 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$28:$A$30</c:f>
+              <c:f>Pivot!$A$28:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>MiddleAge</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Retire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$B$28:$B$30</c:f>
+              <c:f>Pivot!$B$28:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4661,29 +4561,23 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$28:$A$30</c:f>
+              <c:f>Pivot!$A$28:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>MiddleAge</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Retire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$C$28:$C$30</c:f>
+              <c:f>Pivot!$C$28:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4691,7 +4585,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3945-404C-B7C9-AE6931FF1FC9}"/>
+              <c16:uniqueId val="{00000002-0093-4BC1-9935-2015698B3748}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5472,41 +5366,29 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$16:$A$20</c:f>
+              <c:f>Pivot!$A$16:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0-1 Miles</c:v>
+                  <c:v>2-5 Miles</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10+ Miles</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1-2 Miles</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2-5 Miles</c:v>
+                  <c:v>5-10 Miles</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$B$16:$B$20</c:f>
+              <c:f>Pivot!$B$16:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5558,38 +5440,26 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$16:$A$20</c:f>
+              <c:f>Pivot!$A$16:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0-1 Miles</c:v>
+                  <c:v>2-5 Miles</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10+ Miles</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1-2 Miles</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2-5 Miles</c:v>
+                  <c:v>5-10 Miles</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$C$16:$C$20</c:f>
+              <c:f>Pivot!$C$16:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>42</c:v>
-                </c:pt>
+                <c:ptCount val="2"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5597,7 +5467,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4960-450B-AC42-38F39B5CF01A}"/>
+              <c16:uniqueId val="{00000002-62B6-472D-A112-C6787BB776CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6644,44 +6514,23 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$38:$A$43</c:f>
+              <c:f>Pivot!$A$38:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clerical</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Management</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Manual</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Professional</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Skilled Manual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$B$38:$B$43</c:f>
+              <c:f>Pivot!$B$38:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6720,139 +6569,33 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-656B-4A78-AD42-BCF7B5E6060A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-656B-4A78-AD42-BCF7B5E6060A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-656B-4A78-AD42-BCF7B5E6060A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-656B-4A78-AD42-BCF7B5E6060A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000014-656B-4A78-AD42-BCF7B5E6060A}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Pivot!$A$38:$A$43</c:f>
+              <c:f>Pivot!$A$38:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Clerical</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Management</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Manual</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>Professional</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Skilled Manual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Pivot!$C$38:$C$43</c:f>
+              <c:f>Pivot!$C$38:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="1">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-656B-4A78-AD42-BCF7B5E6060A}"/>
+              <c16:uniqueId val="{00000016-8357-47CF-ACD8-B67F1B6D05C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12012,8 +11755,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="14" name="Occupation">
@@ -12036,7 +11779,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -28604,13 +28347,175 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6523A52-7B05-42E3-8789-9FDBC22B53E0}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A36:D43" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F3B99F7-357E-4B8A-93C4-61553070C779}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
         <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="4"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
+        <item x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6523A52-7B05-42E3-8789-9FDBC22B53E0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A36:D39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -28630,9 +28535,9 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="6">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item h="1" x="4"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item h="1" x="1"/>
         <item h="1" x="3"/>
         <item t="default"/>
@@ -28640,11 +28545,11 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
         <item x="2"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -28678,21 +28583,9 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
+  <rowItems count="2">
     <i>
       <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -28715,7 +28608,7 @@
   <dataFields count="1">
     <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="14">
+  <chartFormats count="16">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -28914,6 +28807,36 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -28927,14 +28850,14 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A0CBAF4-8FBB-4733-B456-C160149E7F41}" name="PivotTable4" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A26:D30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A0CBAF4-8FBB-4733-B456-C160149E7F41}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A26:D29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -28944,9 +28867,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item h="1" x="4"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item h="1" x="1"/>
         <item h="1" x="3"/>
         <item t="default"/>
@@ -28954,11 +28877,11 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="6">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
         <item x="2"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -28993,12 +28916,9 @@
   <rowFields count="1">
     <field x="12"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="2">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -29083,14 +29003,14 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EDDC3B5-C5D6-4845-8F13-1F35ECADABF7}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A14:D20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EDDC3B5-C5D6-4845-8F13-1F35ECADABF7}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A14:D18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item x="1"/>
         <item t="default"/>
       </items>
@@ -29100,9 +29020,9 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item h="1" x="4"/>
-        <item h="1" x="2"/>
+        <item x="2"/>
         <item h="1" x="1"/>
         <item h="1" x="3"/>
         <item t="default"/>
@@ -29110,11 +29030,11 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="6">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
+        <item h="1" x="1"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
         <item x="2"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -29158,18 +29078,12 @@
   <rowFields count="1">
     <field x="9"/>
   </rowFields>
-  <rowItems count="5">
+  <rowItems count="3">
     <i>
-      <x/>
+      <x v="3"/>
     </i>
     <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
+      <x v="4"/>
     </i>
     <i t="grand">
       <x/>
@@ -29302,168 +29216,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F3B99F7-357E-4B8A-93C4-61553070C779}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item h="1" x="4"/>
-        <item h="1" x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Marital_Status" xr10:uid="{C4613234-6A21-4A19-8BBC-AF0EB372B542}" sourceName="Marital Status">
   <pivotTables>
@@ -29475,7 +29227,7 @@
   <data>
     <tabular pivotCacheId="1448805002">
       <items count="2">
-        <i x="0" s="1"/>
+        <i x="0"/>
         <i x="1" s="1"/>
       </items>
     </tabular>
@@ -29514,11 +29266,11 @@
   <data>
     <tabular pivotCacheId="1448805002">
       <items count="5">
-        <i x="0" s="1"/>
-        <i x="4"/>
-        <i x="2"/>
+        <i x="0"/>
+        <i x="2" s="1"/>
         <i x="1"/>
-        <i x="3"/>
+        <i x="4" nd="1"/>
+        <i x="3" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -29536,11 +29288,11 @@
   <data>
     <tabular pivotCacheId="1448805002">
       <items count="5">
-        <i x="1" s="1"/>
-        <i x="4" s="1"/>
-        <i x="3" s="1"/>
+        <i x="4"/>
+        <i x="3"/>
         <i x="2" s="1"/>
-        <i x="0" s="1"/>
+        <i x="1" nd="1"/>
+        <i x="0" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -29894,13 +29646,13 @@
         <v>36</v>
       </c>
       <c r="B5" s="5">
-        <v>43000</v>
+        <v>90000</v>
       </c>
       <c r="C5" s="5">
-        <v>39090.909090909088</v>
+        <v>120000</v>
       </c>
       <c r="D5" s="5">
-        <v>40952.380952380954</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -29908,13 +29660,11 @@
         <v>35</v>
       </c>
       <c r="B6" s="5">
-        <v>33846.153846153844</v>
-      </c>
-      <c r="C6" s="5">
-        <v>34615.384615384617</v>
-      </c>
+        <v>120000</v>
+      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="5">
-        <v>34358.974358974359</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -29922,13 +29672,13 @@
         <v>39</v>
       </c>
       <c r="B7" s="5">
-        <v>39393.939393939392</v>
+        <v>105000</v>
       </c>
       <c r="C7" s="5">
-        <v>36666.666666666664</v>
+        <v>120000</v>
       </c>
       <c r="D7" s="5">
-        <v>37777.777777777781</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -29955,70 +29705,42 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5">
-        <v>42</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5">
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B17" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="5">
-        <v>5</v>
-      </c>
       <c r="D18" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="5">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="5">
-        <v>33</v>
-      </c>
-      <c r="C20" s="5">
-        <v>48</v>
-      </c>
-      <c r="D20" s="5">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -30048,41 +29770,27 @@
         <v>43</v>
       </c>
       <c r="B28" s="5">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C28" s="5">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="D28" s="5">
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B29" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C29" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="5">
-        <v>33</v>
-      </c>
-      <c r="C30" s="5">
-        <v>48</v>
-      </c>
-      <c r="D30" s="5">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -30109,82 +29817,30 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B38" s="5">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C38" s="5">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D38" s="5">
-        <v>46</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B39" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
       </c>
       <c r="D39" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="5">
-        <v>2</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5">
-        <v>4</v>
-      </c>
-      <c r="D41" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="5">
-        <v>8</v>
-      </c>
-      <c r="C42" s="5">
-        <v>14</v>
-      </c>
-      <c r="D42" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="5">
-        <v>33</v>
-      </c>
-      <c r="C43" s="5">
-        <v>48</v>
-      </c>
-      <c r="D43" s="5">
-        <v>81</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.3">
@@ -30202,7 +29858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE1CC57-E2F5-43DE-8F95-815E08256B55}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -30224,8 +29880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1027"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1027"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dashboard Project.xlsx
+++ b/Dashboard Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738D51F1-ECEE-4951-9A0C-FB22F9FD41E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F0C8487-EA23-434A-AAB7-787FA8935AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8257" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8253" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -185,7 +185,7 @@
     <t>Count of Purchased Bike</t>
   </si>
   <si>
-    <t>MiddleAge</t>
+    <t>Retire</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1007,7 @@
                   <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1015,62 +1015,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C014-48B4-B2E2-79719BDADBA6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pivot!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Pivot!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pivot!$C$5:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>120000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B269-4E6C-9C07-C5D4E2263ADE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1587,6 +1531,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -1712,7 +1659,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2-5 Miles</c:v>
+                  <c:v>10+ Miles</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5-10 Miles</c:v>
@@ -1739,77 +1686,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-939F-4556-8684-EF377592B621}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pivot!$C$14:$C$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Pivot!$A$16:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2-5 Miles</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5-10 Miles</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pivot!$C$16:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AFB7-4465-BAFE-3A77A510A7AC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2180,6 +2056,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2281,7 +2160,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MiddleAge</c:v>
+                  <c:v>Retire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2302,62 +2181,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D1F5-45E6-AD84-4DD91AFEFDF2}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pivot!$C$26:$C$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Pivot!$A$28:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MiddleAge</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pivot!$C$28:$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DFD6-430E-8A2D-9CFE0A3CF218}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2798,6 +2621,20 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -2923,7 +2760,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Professional</c:v>
+                  <c:v>Management</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2943,64 +2780,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8CE9-46E5-B71A-DB14C0D5CB08}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pivot!$C$36:$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Pivot!$A$38:$A$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Professional</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pivot!$C$38:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000015-DCA9-4C22-8A4E-9B85952C22F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3598,7 +3377,7 @@
                   <c:v>90000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3606,62 +3385,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8ECB-4EE5-A567-0505341EB797}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pivot!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Pivot!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pivot!$C$5:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>120000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9AD0-4FCD-94BA-5B60A580F79F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4509,7 +4232,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MiddleAge</c:v>
+                  <c:v>Retire</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4530,62 +4253,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3945-404C-B7C9-AE6931FF1FC9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pivot!$C$26:$C$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Pivot!$A$28:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MiddleAge</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pivot!$C$28:$C$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0093-4BC1-9935-2015698B3748}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5258,11 +4925,11 @@
           <c:size val="5"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln w="9525">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst/>
@@ -5370,7 +5037,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2-5 Miles</c:v>
+                  <c:v>10+ Miles</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5-10 Miles</c:v>
@@ -5397,77 +5064,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4960-450B-AC42-38F39B5CF01A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pivot!$C$14:$C$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Pivot!$A$16:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2-5 Miles</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5-10 Miles</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pivot!$C$16:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-62B6-472D-A112-C6787BB776CD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6518,7 +6114,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Professional</c:v>
+                  <c:v>Management</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6538,64 +6134,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000A-656B-4A78-AD42-BCF7B5E6060A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Pivot!$C$36:$C$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Pivot!$A$38:$A$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Professional</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Pivot!$C$38:$C$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000016-8357-47CF-ACD8-B67F1B6D05C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -28347,8 +27885,218 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EDDC3B5-C5D6-4845-8F13-1F35ECADABF7}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A14:C18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="4"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" dataField="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="9" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F3B99F7-357E-4B8A-93C4-61553070C779}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:C7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -28380,9 +28128,9 @@
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item h="1" x="3"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="0"/>
         <item t="default"/>
       </items>
@@ -28432,12 +28180,9 @@
   <colFields count="1">
     <field x="13"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -28508,9 +28253,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6523A52-7B05-42E3-8789-9FDBC22B53E0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A36:D39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A36:C39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -28546,9 +28291,9 @@
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item h="1" x="3"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="0"/>
         <item t="default"/>
       </items>
@@ -28585,7 +28330,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="3"/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -28594,12 +28339,9 @@
   <colFields count="1">
     <field x="13"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -28608,7 +28350,7 @@
   <dataFields count="1">
     <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="16">
+  <chartFormats count="17">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -28837,6 +28579,21 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -28850,9 +28607,9 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0A0CBAF4-8FBB-4733-B456-C160149E7F41}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A26:D29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A26:C29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
     <pivotField showAll="0">
@@ -28878,9 +28635,9 @@
     <pivotField showAll="0">
       <items count="6">
         <item h="1" x="1"/>
-        <item h="1" x="4"/>
+        <item x="4"/>
         <item h="1" x="3"/>
-        <item x="2"/>
+        <item h="1" x="2"/>
         <item h="1" x="0"/>
         <item t="default"/>
       </items>
@@ -28918,7 +28675,7 @@
   </rowFields>
   <rowItems count="2">
     <i>
-      <x v="1"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -28927,12 +28684,9 @@
   <colFields count="1">
     <field x="13"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -28955,219 +28709,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5EDDC3B5-C5D6-4845-8F13-1F35ECADABF7}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A14:D18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="4"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item h="1" x="1"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item x="2"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item h="1" x="2"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Purchased Bike" fld="13" subtotal="count" baseField="9" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="8">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -29247,8 +28788,8 @@
     <tabular pivotCacheId="1448805002">
       <items count="3">
         <i x="0" s="1"/>
-        <i x="2"/>
         <i x="1"/>
+        <i x="2" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -29288,9 +28829,9 @@
   <data>
     <tabular pivotCacheId="1448805002">
       <items count="5">
-        <i x="4"/>
+        <i x="4" s="1"/>
         <i x="3"/>
-        <i x="2" s="1"/>
+        <i x="2"/>
         <i x="1" nd="1"/>
         <i x="0" nd="1"/>
       </items>
@@ -29615,11 +29156,10 @@
   <cols>
     <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
@@ -29627,7 +29167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -29635,13 +29175,10 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -29649,39 +29186,32 @@
         <v>90000</v>
       </c>
       <c r="C5" s="5">
-        <v>120000</v>
-      </c>
-      <c r="D5" s="5">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="5">
-        <v>120000</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>80000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="5">
-        <v>105000</v>
+        <v>85000</v>
       </c>
       <c r="C7" s="5">
-        <v>120000</v>
-      </c>
-      <c r="D7" s="5">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>85000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>42</v>
       </c>
@@ -29689,7 +29219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -29697,25 +29227,21 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5">
         <v>1</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5">
+      <c r="C16" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -29725,11 +29251,8 @@
       <c r="C17" s="5">
         <v>1</v>
       </c>
-      <c r="D17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>39</v>
       </c>
@@ -29737,13 +29260,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>42</v>
       </c>
@@ -29751,7 +29271,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>38</v>
       </c>
@@ -29759,13 +29279,10 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>43</v>
       </c>
@@ -29773,13 +29290,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="5">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>39</v>
       </c>
@@ -29787,13 +29301,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="5">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>42</v>
       </c>
@@ -29801,7 +29312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
@@ -29809,27 +29320,21 @@
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B38" s="5">
         <v>2</v>
       </c>
       <c r="C38" s="5">
-        <v>1</v>
-      </c>
-      <c r="D38" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>39</v>
       </c>
@@ -29837,10 +29342,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="5">
-        <v>1</v>
-      </c>
-      <c r="D39" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.3">
@@ -29858,7 +29360,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE1CC57-E2F5-43DE-8F95-815E08256B55}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -29880,7 +29382,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
